--- a/biology/Médecine/Marie_Jaisson/Marie_Jaisson.xlsx
+++ b/biology/Médecine/Marie_Jaisson/Marie_Jaisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Jaisson (née en 1962) est une sociologue française spécialisée la sociologie des pratiques médicales, de la maladie et de la santé, et de l'histoire de la sociologie. 
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Jaisson est née en 1962. 
-Dans les années 1980, elle suit un cursus en sociologie à l’École des  Hautes Études en Sciences Sociales (EHESS) à Paris. Elle y obtient son doctorat « Les Lieux de l'art : études sur la structure sociale du milieu médical dans une ville universitaire de province [Dijon] » sous la direction de Pierre Bourdieu en 1995[1],[2]. 
+Dans les années 1980, elle suit un cursus en sociologie à l’École des  Hautes Études en Sciences Sociales (EHESS) à Paris. Elle y obtient son doctorat « Les Lieux de l'art : études sur la structure sociale du milieu médical dans une ville universitaire de province [Dijon] » sous la direction de Pierre Bourdieu en 1995,. 
 Elle réalise par la suite plusieurs séjours à New York, pour fréquenter la bibliothèque de l’université de Columbia, où elle se confronte aux travaux américains sur la médecine et les professions qui y sont liées. 
 Elle est particulièrement intéressée par les travaux portant sur la mémoire et le temps. En ce sens, ses travaux avec Christian Baudelot revisitent la notion de mémoire collective et ses remaniements possibles dans le cadre d'un travail de reconnaissance, requestionnant ainsi les problématiques du sociologue Maurice Halbwachs. 
-Elle a été maître de conférences à l'université de Tours et est actuellement professeure au laboratoire IRIS (Institut de Recherche Interdisciplinaire sur les enjeux Sociaux) à l'université Sorbonne Paris Nord (Paris 13)[3].
-Elle est également directrice adjointe de la Maison des Sciences de l'Homme (MSH) de Paris Nord et tient un blog sur ses publications[4].
+Elle a été maître de conférences à l'université de Tours et est actuellement professeure au laboratoire IRIS (Institut de Recherche Interdisciplinaire sur les enjeux Sociaux) à l'université Sorbonne Paris Nord (Paris 13).
+Elle est également directrice adjointe de la Maison des Sciences de l'Homme (MSH) de Paris Nord et tient un blog sur ses publications.
 </t>
         </is>
       </c>
